--- a/dummy.xlsx
+++ b/dummy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashley\OneDrive - Tampa Bay Regional Planning\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FE91869-A609-46BD-ACA0-A97723E533BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8D4024-174C-4585-8142-F9EE8114C061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="10008" xr2:uid="{211E38D3-AA05-495F-9A08-489FB9EE2B2F}"/>
   </bookViews>
@@ -36,12 +36,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>dummy</t>
   </si>
   <si>
     <t>excel</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>to test</t>
   </si>
 </sst>
 </file>
@@ -393,15 +402,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB04212-6050-4905-9F3D-4C53B7783EB4}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,6 +418,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
